--- a/기획안/유닛.xlsx
+++ b/기획안/유닛.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -188,8 +188,37 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>패시브 스킬1 아이콘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외형애니메이션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZICH_AnimCT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000
+스킬 클래스 이름 : Skill_ZICH_BaseAttack
+스킬 이름 : 타격
+적 하나만 타격하는 기본 공격
+공격력의 100%
+아이콘 이름 : Sprite_SkillIcon_ZICH_BaseAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>10001
-스킬 클래스 이름 : ZICH_Skill_ActiveSkill_1
+스킬 클래스 이름 : Skill_ZICH_ActiveSkill_1
 스킬 이름 : 전투의 함성
 아군 전체에게 [공격력 상승] 버프 부여
 스킬 쿨타임 : 3턴
@@ -199,17 +228,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10000
-스킬 클래스 이름 : ZICH_Skill_BaseAttack
-스킬 이름 : 타격
-적 하나만 타격하는 기본 공격
-공격력의 100%
-아이콘 이름 : Sprite_SkillIcon_ZICH_BaseAttack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10002
-스킬 클래스 이름 : ZICH_Skill_ActiveSkill_2
+스킬 클래스 이름 : Skill_ZICH_ActiveSkill_2
 스킬 이름 : 맹렬한 타격
 적군 전체에게 기본 공격
 스킬 쿨타임 : 3턴
@@ -218,16 +238,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>패시브 스킬1 아이콘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>없음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10003
-스킬 클래스 이름 : ZICH_Skill_PassiveSkill_1
+    <t>20000
+스킬 클래스 이름 : Skill_ZICH_PassiveSkill_1
 스킬 이름 : 전투 태세
 [전투 시작 시] 자신의 공격력 20% 상승
 아이콘 이름 : Sprite_SkillIcon_ZICH_PassiveSkill_1</t>
@@ -317,13 +329,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>497325</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>361950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2257425</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>2195175</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -381,14 +393,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1053353</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>571501</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>246531</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2330824</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>1848972</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1524002</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -397,7 +409,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5815853" y="3597089"/>
+          <a:off x="4695265" y="3485031"/>
           <a:ext cx="1277471" cy="1277471"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -446,13 +458,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1053353</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2330824</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>1277471</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -511,13 +523,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1053353</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2330824</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>1277471</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -576,13 +588,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1053353</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2330824</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>1277471</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -641,13 +653,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1053353</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2330824</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>1277471</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -711,13 +723,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>333375</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -776,13 +788,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>333375</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1103,10 +1115,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S25"/>
+  <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1140,113 +1152,110 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="204.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="204.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="126" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1">
-        <v>120</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C7" s="1">
-        <v>10</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="1">
         <v>10</v>
       </c>
       <c r="C8" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1">
         <v>15</v>
-      </c>
-      <c r="C9" s="1">
-        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C10" s="1">
-        <v>0.1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
       </c>
       <c r="C11" s="1">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
       </c>
       <c r="C12" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
@@ -1257,95 +1266,106 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="1">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="C14" s="1">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B16" s="1">
         <v>0.2</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C16" s="1">
         <v>0.2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="3" customFormat="1" ht="99" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:3" s="3" customFormat="1" ht="99" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="3" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="C17" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="3" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="5"/>
-    </row>
-    <row r="18" spans="1:3" s="3" customFormat="1" ht="132" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:3" s="3" customFormat="1" ht="132" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C19" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="3" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="1:3" s="3" customFormat="1" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="3" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:3" s="3" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="3" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" s="3" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="5"/>
-    </row>
-    <row r="20" spans="1:3" s="3" customFormat="1" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="3" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="5"/>
-    </row>
-    <row r="22" spans="1:3" s="3" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="3" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="C24" s="5"/>
     </row>
     <row r="25" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1357,10 +1377,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1385,21 +1405,15 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>31</v>
@@ -1407,28 +1421,39 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
     </row>

--- a/기획안/유닛.xlsx
+++ b/기획안/유닛.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FFC6FF-A9D0-4CA8-88E3-35AA0F7D1CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="유닛 상세" sheetId="1" r:id="rId1"/>
@@ -222,7 +223,7 @@
 스킬 이름 : 전투의 함성
 아군 전체에게 [공격력 상승] 버프 부여
 스킬 쿨타임 : 3턴
-버프 지속시간 : 2턴
+버프 지속시간 : 스킬레벨 * 1 턴
 사용 마나 : 2
 아이콘 이름 : Sprite_SkillIcon_ZICH_ActiveSkill_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -231,7 +232,7 @@
     <t>10002
 스킬 클래스 이름 : Skill_ZICH_ActiveSkill_2
 스킬 이름 : 맹렬한 타격
-적군 전체에게 기본 공격
+적군 전체에게 기본 공격(기본공격력 + 기본공격력 * 0.1 * 스킬레벨)
 스킬 쿨타임 : 3턴
 사용 마나 : 1
 아이콘 이름 : Sprite_SkillIcon_ZICH_ActiveSkill_2</t>
@@ -241,7 +242,7 @@
     <t>20000
 스킬 클래스 이름 : Skill_ZICH_PassiveSkill_1
 스킬 이름 : 전투 태세
-[전투 시작 시] 자신의 공격력 20% 상승
+[전투 시작 시] 자신의 공격력 (20 * 스킬레벨)% 상승
 아이콘 이름 : Sprite_SkillIcon_ZICH_PassiveSkill_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -249,7 +250,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -340,7 +341,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="직사각형 1"/>
+        <xdr:cNvPr id="2" name="직사각형 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -404,7 +411,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="직사각형 3"/>
+        <xdr:cNvPr id="4" name="직사각형 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -469,7 +482,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="직사각형 5"/>
+        <xdr:cNvPr id="6" name="직사각형 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -534,7 +553,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="직사각형 7"/>
+        <xdr:cNvPr id="8" name="직사각형 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -599,7 +624,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="직사각형 8"/>
+        <xdr:cNvPr id="9" name="직사각형 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -664,7 +695,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="직사각형 9"/>
+        <xdr:cNvPr id="10" name="직사각형 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -734,7 +771,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="직사각형 1"/>
+        <xdr:cNvPr id="2" name="직사각형 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -799,7 +842,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="직사각형 2"/>
+        <xdr:cNvPr id="3" name="직사각형 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1114,11 +1163,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1325,7 +1374,7 @@
       </c>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="1:3" s="3" customFormat="1" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" s="3" customFormat="1" ht="132" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -1339,7 +1388,7 @@
       </c>
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="1:3" s="3" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" s="3" customFormat="1" ht="99" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
@@ -1376,11 +1425,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1407,6 +1456,12 @@
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="B2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1001</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">

--- a/기획안/유닛.xlsx
+++ b/기획안/유닛.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FFC6FF-A9D0-4CA8-88E3-35AA0F7D1CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="유닛 상세" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="68">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -239,18 +238,119 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>패시브 스킬2 아이콘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로사(LOSA)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOSA_AnimCT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스프라이트 이름 : Sprite_Unit_Portrait_LOSA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">10001
+스킬 클래스 이름 : 
+스킬 이름 : 
+스킬 설명 : 
+스킬 쿨타임 :
+버프 지속시간 : 
+사용 마나 :
+아이콘 이름 : </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10003
+스킬 클래스 이름 : Skill_LOSA_BaseAttack
+스킬 이름 : 사격
+적 하나를 사격하며 2턴간 [낙인]을 부여 한다.
+공격력의 80%
+아이콘 이름 : Sprite_SkillIcon_ROSA_BaseAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10005
+스킬 클래스 이름 : Skill_LOSA_ActiveSkill_2
+스킬 이름 : 다발 사격
+스킬 설명 : 적군 전체에게 기본 공격력의 (50% + (스킬레벨 * 5%))의 피해를 가한다. 적에게 낙인 상태이상이 있다면 치명타 피해로 들어가며, 없다면 2턴간 낙인 상태이상을 부여한다.
+스킬 쿨타임 : 3
+사용 마나 : 3
+아이콘 이름 : Sprite_SkillIcon_ROSA_ActiveSkill_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">20000
+스킬 클래스 이름 :
+스킬 이름 : 
+스킬 설명 : 
+아이콘 이름 : </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>20000
 스킬 클래스 이름 : Skill_ZICH_PassiveSkill_1
 스킬 이름 : 전투 태세
-[전투 시작 시] 자신의 공격력 (20 * 스킬레벨)% 상승
+스킬 설명 : [전투 시작 시] 자신의 공격력 (20 * 스킬레벨)% 상승
 아이콘 이름 : Sprite_SkillIcon_ZICH_PassiveSkill_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낙인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10004
+스킬 클래스 이름 : Skill_LOSA_ActiveSkill_1
+스킬 이름 : 치명적인 사격
+스킬 설명 : 적군 한명에게 치명적인 사격을 가해 기본 공격력의 (100 + (스킬레벨 * 20))%의 피해를 가한다.
+낙인 상태이상이 있다면 반드시 치명타 피해로 들어간다.
+스킬 쿨타임 : 2
+사용 마나 : 2
+아이콘 이름 : Sprite_SkillIcon_ROSA_ActiveSkill_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20001
+스킬 클래스 이름 : Skill_ROSA_PassiveSkill_1
+스킬 이름 : 정조준 사격
+스킬 설명 : [전투 시작 시] 자신의 치명타 피해를 (25 + (5 * 스킬레벨))% 만큼 증가합니다.
+아이콘 이름 : Sprite_SkillIcon_ROSA_PassiveSkill_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite_Condition_Brand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>형태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지속형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>틱형</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -422,7 +522,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4695265" y="3485031"/>
+          <a:off x="6477000" y="3485031"/>
           <a:ext cx="1277471" cy="1277471"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -751,6 +851,431 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>497325</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>361950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2257425</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>2195175</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="직사각형 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4139237" y="1000685"/>
+          <a:ext cx="1760100" cy="1833225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect l="-150248" t="-160313" r="-195128" b="-4277"/>
+          </a:stretch>
+        </a:blipFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1053353</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>246531</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2330824</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1524002</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="직사각형 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4695265" y="3485031"/>
+          <a:ext cx="1277471" cy="1277471"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1053353</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2330824</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1277471</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="직사각형 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4695265" y="8438029"/>
+          <a:ext cx="1277471" cy="1277471"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1053353</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2330824</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1277471</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="직사각형 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4695265" y="11463618"/>
+          <a:ext cx="1277471" cy="1277471"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1053353</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2330824</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1277471</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="직사각형 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4695265" y="14489206"/>
+          <a:ext cx="1277471" cy="1277471"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1053353</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2330824</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1277471</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="직사각형 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4695265" y="17088971"/>
+          <a:ext cx="1277471" cy="1277471"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -760,13 +1285,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>333375</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -831,13 +1356,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>333375</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -861,6 +1386,148 @@
         </a:prstGeom>
         <a:blipFill>
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1057275</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>352425</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="직사각형 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8181975" y="1304925"/>
+          <a:ext cx="314325" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1057275</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>352425</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="직사각형 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8181975" y="1304925"/>
+          <a:ext cx="314325" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -1163,23 +1830,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43" style="1" customWidth="1"/>
-    <col min="4" max="19" width="9" style="1"/>
-    <col min="20" max="16384" width="9" style="2"/>
+    <col min="2" max="2" width="39.5" style="1" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="43" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="43" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5" style="1" customWidth="1"/>
+    <col min="6" max="20" width="9" style="1"/>
+    <col min="21" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1189,8 +1858,11 @@
       <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1200,16 +1872,22 @@
       <c r="C2" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" s="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="204.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="204.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1217,15 +1895,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="126" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="126" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -1235,8 +1916,11 @@
       <c r="C6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,8 +1930,11 @@
       <c r="C7" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -1257,8 +1944,11 @@
       <c r="C8" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1268,8 +1958,11 @@
       <c r="C9" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1279,8 +1972,11 @@
       <c r="C10" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1290,8 +1986,11 @@
       <c r="C11" s="1">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1301,8 +2000,11 @@
       <c r="C12" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1312,8 +2014,11 @@
       <c r="C13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1323,8 +2028,11 @@
       <c r="C14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1334,8 +2042,11 @@
       <c r="C15" s="1">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" s="1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
@@ -1345,76 +2056,103 @@
       <c r="C16" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" s="3" customFormat="1" ht="99" x14ac:dyDescent="0.3">
+      <c r="D16" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="3" customFormat="1" ht="99" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" s="3" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="3" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:3" s="3" customFormat="1" ht="132" x14ac:dyDescent="0.3">
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:4" s="3" customFormat="1" ht="181.5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="B19" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="C19" s="6" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" s="3" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="3" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C20" s="5"/>
-    </row>
-    <row r="21" spans="1:3" s="3" customFormat="1" ht="132" x14ac:dyDescent="0.3">
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:4" s="3" customFormat="1" ht="165" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" s="3" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="3" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="1:3" s="3" customFormat="1" ht="99" x14ac:dyDescent="0.3">
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:4" s="3" customFormat="1" ht="99" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="B23" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="C23" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" s="3" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="3" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C24" s="5"/>
-    </row>
-    <row r="25" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1425,23 +2163,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="16384" width="9" style="2"/>
+    <col min="2" max="3" width="38.5" style="1" customWidth="1"/>
+    <col min="4" max="5" width="22.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -1451,8 +2188,11 @@
       <c r="C1" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
@@ -1462,55 +2202,86 @@
       <c r="C2" s="1">
         <v>1001</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="D7" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/기획안/유닛.xlsx
+++ b/기획안/유닛.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="유닛 상세" sheetId="1" r:id="rId1"/>
@@ -265,15 +265,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10003
-스킬 클래스 이름 : Skill_LOSA_BaseAttack
-스킬 이름 : 사격
-적 하나를 사격하며 2턴간 [낙인]을 부여 한다.
-공격력의 80%
-아이콘 이름 : Sprite_SkillIcon_ROSA_BaseAttack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10005
 스킬 클래스 이름 : Skill_LOSA_ActiveSkill_2
 스킬 이름 : 다발 사격
@@ -344,6 +335,15 @@
   </si>
   <si>
     <t>틱형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10003
+스킬 클래스 이름 : Skill_LOSA_BaseAttack
+스킬 이름 : 표식 공격
+적 하나를 공격하며 2턴간 [낙인]을 부여 한다.
+공격력의 80%
+아이콘 이름 : Sprite_SkillIcon_ROSA_BaseAttack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1833,8 +1833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2068,7 +2068,7 @@
         <v>47</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="3" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2089,7 +2089,7 @@
         <v>48</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="3" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2107,7 +2107,7 @@
         <v>49</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:4" s="3" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2122,13 +2122,13 @@
         <v>19</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>58</v>
-      </c>
       <c r="D23" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="3" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2166,7 +2166,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -2189,7 +2189,7 @@
         <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -2208,16 +2208,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -2231,7 +2231,7 @@
         <v>31</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -2245,7 +2245,7 @@
         <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -2259,7 +2259,7 @@
         <v>39</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -2273,7 +2273,7 @@
         <v>38</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
